--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560371/JX560371_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560371/JX560371_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89324406411</v>
+        <v>45441.8334961484</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1764_1769insaatta']</t>
+          <t>['1601_1715del', '1801_1811del', '1590_1636del', '1688_1758instaatcactgacagaatgtcgtttaggtggtccgcggatcagcgaatgtttggcaacccagttacctcggc', '1663_1707del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89324408726</v>
+        <v>45441.83349617154</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['606c&gt;a']</t>
+          <t>['657_747del', '639_696insagtggaaacggcatagtgtcattacacataatggagcgacatatcgtgggggcattg', '634_654del', '625_727del', '678_796insggacagagattgccgcccgggccacaggccaccactgatggagatctcgttctctcgccaatggtatattacaatgggggtggatagacgcttgctgtaagttgtcttaaggagcggt']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89324410461</v>
+        <v>45441.8334961947</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3408_3411insaga']</t>
+          <t>['3433_3514del', '3349_3424insggtttaaactagattcggcggacactgcgcccgtgacgtctttaaattttgtgaactaagtactaataacttctc', '3401_3517instttgccggtagtcgtatagattgccgcacactgcctgacgtgatagctggcaacggtaaagaggggtacagtcctaccgattgtacctgtagcaagtctaacgaacgtgaggcgtc', '3390_3423del', '3426_3549insattattgcccttgcatgggaagctcggctgcgaatagctcccccccgctgcatctcgcccagtctccgacccccgactaatgtaatccaagtacttacctaacggaactcgtattgagtgcag']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89324413356</v>
+        <v>45441.83349621785</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1570_1574insacag']</t>
+          <t>['1627_1651del', '1796_1889insctcgtcgccgagtcccacctcgtgggtactagaggtatagatgggaagtttgatattgacaacctgtttttacctaagggagtaattagcagg', '1576_1620del', '1784_1926insgactcgcaaatataagcgactcagaggagggatggggagtgggcgggacagatcgctagtggagacaggacgctcaaagactatattgggcggtctccaacaatggacttctccccggagtgaaattcggtacacgtggggt', '1723_1853del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['602t&gt;c']</t>
+          <t>['646_762insgcaaaagtttcaccgcctcttacgaatgtatctaacatgccactgggctatccccatttgtcagtgctgtccctggaggctctccgggatacctatttttgaacattagtgtattt', '675_699del', '602_672del', '646_755del', '671_794insagcctaattcgaatattctacgtccctgacgacaaaaagaggtccactgagctactgctgactagtcggttgtttttgcaagctgccgcccagcttgtttaaacttgccctggcgaactcccc']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.8932441509</v>
+        <v>45441.83349624099</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1604_1609insgctat']</t>
+          <t>['1766_1880instggctgtgacctcggcctttaacaatagctaagtggtgttctgacatccaggttcgatttgacaaagatctcacggaaaactgtttctggaatttagattgtttaagggatatc', '1671_1786del', '1588_1701insaaaatcagcgatactgacaaccaagttaagagacccaaaaacttgctttcacaacggtcttcagtgcgagacaccaggttcaaaagtaacgcgacctgtcggaggtacacggt', '1661_1787del', '1696_1771del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3403a&gt;t']</t>
+          <t>['3356_3446del', '3389_3538inscactatccgacgcgacaaagcatggtatccaatcacgcttaatctaccgacaaaagcctatagtgggctttaattaccaagaacctcgattaaagcagtaacgctagtcttgctcaggcgctctccacgggtcgatgttagcactgtag', '3397_3520instcctgtgcccagtgggctatgacgttgatacagatgtgtggccagatcaccatgaaatgagggacagctattctgaagggtattaagcctctctgagggcccgtaagcgccaggcgttacgta', '3355_3473del', '3354_3414insgccgccgctgtgctcatagtcacatgtaactacgggaacagatgtatactgctggggacg']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89324417405</v>
+        <v>45441.83349626413</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['667_671instatg']</t>
+          <t>['681_730insgagtggaatgctatggccacgtggggccagtgtccgctcggtcgtaagg', '609_729insggcgccctaatgatggcccaagaagagaaatatctagcggcacgtgtaagatgtaccgccaagtggaatcccagttacggtacggccagatgtggagggcctaaaatttcaacatcgtat', '625_725del', '635_785instacagcgccgggccctcagaaccgttgacaacgatgcggctaacaggaatccgcgaggtccctgcgaatgcaaacataccgccggtggttagggccttgtaaccatgtctcaatctgtagaaggattcgtcttaacccggactcctcatg', '655_771del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3437_3438insg']</t>
+          <t>['3407_3491insttggtaatacaatccacaacgatgctattaaggttacggatcgctaacagccacctgcgcggtccagctgttcatgcgtaattg', '3442_3581del', '3381_3439insaagattgggggggtttcggctgatttgtgtgtccgcctcacccagctaccgatcagtt', '3395_3542instcagttaaacgtggattcgggcctcatggaaactactgtaacctagtctgagctaaccggccctactacttgttctcccgacccggcgtgatggcgggatcattctcgataggtgttccgtgtacacgtgtgcacaaactctgatat', '3443_3560del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89324419142</v>
+        <v>45441.83349628151</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1560_1563del']</t>
+          <t>['1614_1657inscggagcgaactggttacgacgccaacgggagctttgccaggca', '1749_1890insgcaagagtgcattggcgacaaccgccatgaatatgaatcgatcgggctctgaaacggggtgtcaagaaattgtaacgacttccacagacgcgcaaacggtttggaccgtggtgcgcaacggtacaagtgtaaccgccgggt', '1667_1745insaagaatcgagcattgttcccgtaagcccggccgtttatatgtaaggaagggttcgcgatcgggtctaattccgagttc', '1782_1881del', '1708_1844del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['626_627insa']</t>
+          <t>['669_751insagagctcccgtaccctatcggtgagcagcccactcccatggtagcgagcatgtccccgtgggttcggcccagacatccactt', '610_743insaggactagcagacgacatcttaggacttgaccccacgaatcgacatataatgggtccgacggtttatgatgcgtggcacgtaccgcgtaggcaagcagtccaacaccccatcgctgccctcgatattctcggt', '674_768insgttacatgggggatccggtcatgcttccgtttttcagagggcttagtcatcaagggggagcccagatcttaaaacattaacgtgcggggcgcag', '631_672del', '670_743del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3403a&gt;c']</t>
+          <t>['3422_3461insacagtggctctgaaataacactttagcaggcagaatagt', '3425_3492insctaggtactatctgatttcttataatccaaacggaaccgtctttctgtaggtaccttgtgagtacca', '3385_3532insgataaatgctcatcagatgatccacgcaacgcatgcacgtacactgcgccgttcattggaaatgttgtataggagttagactatgctgattcacctcggaacaacgctgacggccgcccactctgctactgtggcactgtaaagcgg', '3443_3489insagctccgtccggtcgcggcggggacgatttataccccatggcatac', '3393_3516insaccacctgcattcgtccgcatggagcgacgacgtgactttctgcgtcgatagcccacggcatgtcctggttaagccctgccttccaagtcgatccgctgcaatgtttacaagcagtaaggtgc']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89324421456</v>
+        <v>45441.83349630464</v>
       </c>
     </row>
   </sheetData>
